--- a/src/test/resources/HTMLTables.xlsx
+++ b/src/test/resources/HTMLTables.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="69620" yWindow="2160" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="67200" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTML Table" sheetId="1" r:id="rId1"/>
+    <sheet name="HTML Table 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Company</t>
   </si>
@@ -96,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +115,22 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,15 +150,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,4 +530,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>